--- a/data/trans_orig/P55S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F79E3D4-F126-4C9F-B274-7565E824A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF511FF9-8272-4E8C-81B1-CEEBD7E7458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{276FEF5A-4FF8-46F5-9D7B-7FB9BF3F9F74}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C91D5D42-5843-416F-B0FE-9B6F5BDC5021}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="170">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2012 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -241,31 +241,31 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>21,52%</t>
+    <t>22,6%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>23,38%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
   </si>
   <si>
     <t>50,12%</t>
@@ -274,19 +274,19 @@
     <t>25,19%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>49,88%</t>
@@ -295,25 +295,25 @@
     <t>6,27%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>26,05%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>36,33%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>40,44%</t>
+    <t>38,41%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>31,32%</t>
+    <t>30,83%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -439,16 +439,16 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>37,22%</t>
@@ -463,19 +463,19 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>14,4%</t>
@@ -487,19 +487,19 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>29,73%</t>
@@ -514,13 +514,10 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>10,63%</t>
@@ -532,19 +529,19 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -962,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC85BA6-08DA-4714-9E6A-DD02A2721870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E2F21-D925-4FFF-84E0-912777304C97}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3151,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9C6A2-A464-45F2-BFD7-1D70AFDDA877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0AAD43-2B39-4B9A-8312-427A63222FB0}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3928C-D7D0-488F-A83E-7965BC74FE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551618C-33F7-429D-9E44-05D8F1536016}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7336,7 +7333,7 @@
         <v>159</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7348,13 @@
         <v>936</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -7366,13 +7363,13 @@
         <v>1782</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -7381,13 +7378,13 @@
         <v>2718</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,22 +7420,22 @@
         <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P55S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF511FF9-8272-4E8C-81B1-CEEBD7E7458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68ACC80-F6B1-4B36-A14F-B16286649057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C91D5D42-5843-416F-B0FE-9B6F5BDC5021}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A29D750-D62C-4B3B-BBA1-2E861916ED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="172">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2012 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Enfermera del centro de salud o ambulatorio</t>
@@ -91,7 +91,7 @@
     <t>Un familiar que vive con usted</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -112,10 +112,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -130,6 +130,9 @@
     <t>23,73%</t>
   </si>
   <si>
+    <t>74,33%</t>
+  </si>
+  <si>
     <t>24,59%</t>
   </si>
   <si>
@@ -145,223 +148,226 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>26,36%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
     <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
   </si>
   <si>
     <t>28,57%</t>
@@ -959,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E2F21-D925-4FFF-84E0-912777304C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F3C610-E6A0-4AE0-B9D2-0155CDF93BAD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2650,7 +2656,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2665,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>992</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -2708,13 +2714,13 @@
         <v>992</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -2816,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,10 +2852,10 @@
         <v>4339</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>21</v>
@@ -2861,10 +2867,10 @@
         <v>5440</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>21</v>
@@ -2903,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -2918,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -2969,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3005,13 @@
         <v>957</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3014,13 +3020,13 @@
         <v>957</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>992</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3065,13 +3071,13 @@
         <v>992</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3133,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0AAD43-2B39-4B9A-8312-427A63222FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B4B19-9E06-49D1-8F5B-B061E6AEE8DA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5218,7 +5224,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5239,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551618C-33F7-429D-9E44-05D8F1536016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80707D5B-6B04-4094-880E-03340E2FF75D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5256,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5382,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5397,7 +5403,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,7 +5434,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5443,7 +5449,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5480,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5495,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5544,7 +5550,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5593,7 +5599,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,7 +5633,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5642,7 +5648,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,7 +5720,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5729,7 +5735,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5744,7 +5750,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,7 +5765,7 @@
         <v>1281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>18</v>
@@ -5774,10 +5780,10 @@
         <v>3154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>21</v>
@@ -5789,10 +5795,10 @@
         <v>4435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>21</v>
@@ -5810,7 +5816,7 @@
         <v>522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
@@ -5831,7 +5837,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5840,13 +5846,13 @@
         <v>522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5882,7 +5888,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5897,7 +5903,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5924,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5927,13 +5933,13 @@
         <v>623</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5942,13 +5948,13 @@
         <v>623</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5975,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5984,7 +5990,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5999,7 +6005,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6079,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6082,13 +6088,13 @@
         <v>499</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -6097,13 +6103,13 @@
         <v>499</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6130,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6133,13 +6139,13 @@
         <v>5102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6148,13 +6154,13 @@
         <v>5102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6175,7 @@
         <v>745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
@@ -6184,13 +6190,13 @@
         <v>2484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6199,13 +6205,13 @@
         <v>3229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6226,7 @@
         <v>741</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>18</v>
@@ -6235,13 +6241,13 @@
         <v>618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6250,13 +6256,13 @@
         <v>1360</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6286,13 +6292,13 @@
         <v>1160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6301,13 +6307,13 @@
         <v>1160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6334,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6343,7 +6349,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6358,7 +6364,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6432,13 @@
         <v>705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6441,13 +6447,13 @@
         <v>704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6456,13 +6462,13 @@
         <v>1409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6483,13 @@
         <v>709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6492,13 +6498,13 @@
         <v>2677</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6507,13 +6513,13 @@
         <v>3386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,7 +6540,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -6543,13 +6549,13 @@
         <v>1353</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -6558,13 +6564,13 @@
         <v>1353</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6585,13 @@
         <v>1874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6600,7 +6606,7 @@
         <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6609,13 +6615,13 @@
         <v>1874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6636,13 @@
         <v>936</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6651,7 +6657,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6660,13 +6666,13 @@
         <v>936</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6702,7 +6708,7 @@
         <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6717,7 +6723,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,7 +6797,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6806,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6821,7 +6827,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,7 +6845,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>23</v>
@@ -6851,10 +6857,10 @@
         <v>4538</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>21</v>
@@ -6866,10 +6872,10 @@
         <v>5823</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>21</v>
@@ -6893,7 +6899,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6902,13 +6908,13 @@
         <v>1271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6917,13 +6923,13 @@
         <v>1271</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,7 +6950,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6959,7 +6965,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6974,7 +6980,7 @@
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,7 +7001,7 @@
         <v>19</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7010,7 +7016,7 @@
         <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7025,7 +7031,7 @@
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,7 +7052,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7061,7 +7067,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7076,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7150,13 @@
         <v>705</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -7159,13 +7165,13 @@
         <v>1203</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -7174,13 +7180,13 @@
         <v>1908</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7201,13 @@
         <v>3274</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H40" s="7">
         <v>31</v>
@@ -7210,13 +7216,13 @@
         <v>16576</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -7225,13 +7231,13 @@
         <v>19850</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7252,13 @@
         <v>1267</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -7261,13 +7267,13 @@
         <v>5108</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M41" s="7">
         <v>10</v>
@@ -7276,13 +7282,13 @@
         <v>6375</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7303,13 @@
         <v>2615</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -7312,13 +7318,13 @@
         <v>618</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -7327,13 +7333,13 @@
         <v>3234</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7354,13 @@
         <v>936</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -7363,13 +7369,13 @@
         <v>1782</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -7378,13 +7384,13 @@
         <v>2718</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7411,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7420,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7435,7 +7441,7 @@
         <v>19</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,7 +7497,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
